--- a/data/trans_orig/P74B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P74B-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>78903</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>64994</v>
+        <v>62669</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>94728</v>
+        <v>95087</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1297815439519447</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1069035792010392</v>
+        <v>0.1030800431466677</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1558106725819488</v>
+        <v>0.1564012172107366</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>406</v>
@@ -764,19 +764,19 @@
         <v>403586</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>388637</v>
+        <v>387932</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>414593</v>
+        <v>415746</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8874508169937499</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8545795879312222</v>
+        <v>0.8530300716011955</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9116535370805789</v>
+        <v>0.9141892777976276</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>489</v>
@@ -785,19 +785,19 @@
         <v>482489</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>452974</v>
+        <v>453817</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>514488</v>
+        <v>515186</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4540054458191699</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4262328740197391</v>
+        <v>0.4270263338509738</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4841156500182556</v>
+        <v>0.4847720516472947</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>529065</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>513240</v>
+        <v>512881</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>542974</v>
+        <v>545299</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8702184560480554</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8441893274180515</v>
+        <v>0.8435987827892636</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.893096420798961</v>
+        <v>0.8969199568533325</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>49</v>
@@ -835,19 +835,19 @@
         <v>51184</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>40177</v>
+        <v>39024</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>66133</v>
+        <v>66838</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.11254918300625</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08834646291942089</v>
+        <v>0.08581072220237244</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1454204120687778</v>
+        <v>0.1469699283988048</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>590</v>
@@ -856,19 +856,19 @@
         <v>580249</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>548250</v>
+        <v>547552</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>609764</v>
+        <v>608921</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5459945541808301</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5158843499817444</v>
+        <v>0.5152279483527052</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5737671259802608</v>
+        <v>0.5729736661490261</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>18407</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11345</v>
+        <v>10907</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>28298</v>
+        <v>30043</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.028173299297348</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0173648566667207</v>
+        <v>0.01669357330531663</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04331121695309526</v>
+        <v>0.04598269714462133</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>84</v>
@@ -981,19 +981,19 @@
         <v>88071</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>76437</v>
+        <v>75869</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>98388</v>
+        <v>98224</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6355109836618228</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5515638577416891</v>
+        <v>0.5474652276605207</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7099563560965031</v>
+        <v>0.7087750016339689</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>101</v>
@@ -1002,19 +1002,19 @@
         <v>106478</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>87089</v>
+        <v>87125</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>127066</v>
+        <v>126724</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.134452464977342</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1099691287582439</v>
+        <v>0.1100149498832388</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1604492540702743</v>
+        <v>0.1600171969487816</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>634950</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>625059</v>
+        <v>623314</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>642012</v>
+        <v>642450</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.971826700702652</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.956688783046905</v>
+        <v>0.954017302855379</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9826351433332794</v>
+        <v>0.9833064266946835</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>51</v>
@@ -1052,19 +1052,19 @@
         <v>50512</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>40195</v>
+        <v>40359</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>62146</v>
+        <v>62714</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3644890163381772</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.290043643903497</v>
+        <v>0.2912249983660311</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4484361422583112</v>
+        <v>0.4525347723394791</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>668</v>
@@ -1073,19 +1073,19 @@
         <v>685462</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>664874</v>
+        <v>665216</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>704851</v>
+        <v>704815</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.865547535022658</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8395507459297261</v>
+        <v>0.8399828030512184</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8900308712417562</v>
+        <v>0.8899850501167612</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>9790</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4560</v>
+        <v>4443</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18594</v>
+        <v>18966</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06349443837077452</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02957136534435094</v>
+        <v>0.0288139733652315</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1205916487833139</v>
+        <v>0.1230071024776648</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -1198,19 +1198,19 @@
         <v>15757</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11606</v>
+        <v>10948</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17799</v>
+        <v>17780</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8415657219637348</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6198546768361347</v>
+        <v>0.5847238666208507</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9506536739172421</v>
+        <v>0.9496248183892154</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>23</v>
@@ -1219,19 +1219,19 @@
         <v>25547</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>16619</v>
+        <v>16829</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>36670</v>
+        <v>35873</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1477449869839455</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09611338317713891</v>
+        <v>0.09732960697462163</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2120772663765149</v>
+        <v>0.2074641764419878</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>144397</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>135593</v>
+        <v>135221</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>149627</v>
+        <v>149744</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9365055616292255</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8794083512166861</v>
+        <v>0.8769928975223356</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9704286346556492</v>
+        <v>0.9711860266347685</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -1269,19 +1269,19 @@
         <v>2966</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>924</v>
+        <v>943</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7117</v>
+        <v>7775</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1584342780362652</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04934632608275792</v>
+        <v>0.05037518161078457</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3801453231638648</v>
+        <v>0.4152761333791494</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>141</v>
@@ -1290,19 +1290,19 @@
         <v>147363</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>136240</v>
+        <v>137037</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>156291</v>
+        <v>156081</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8522550130160544</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7879227336234851</v>
+        <v>0.792535823558012</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9038866168228612</v>
+        <v>0.9026703930253783</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>107100</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>87177</v>
+        <v>88865</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>126500</v>
+        <v>128825</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07566188670467343</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0615872000441982</v>
+        <v>0.06277946939149749</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08936730502494225</v>
+        <v>0.09100981288077629</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>505</v>
@@ -1415,19 +1415,19 @@
         <v>507414</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>485398</v>
+        <v>487304</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>525318</v>
+        <v>525635</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8290043296065239</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7930356921815003</v>
+        <v>0.7961499978401021</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8582567288181515</v>
+        <v>0.8587744168140747</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>613</v>
@@ -1436,19 +1436,19 @@
         <v>614514</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>575342</v>
+        <v>569277</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>658371</v>
+        <v>655463</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.303076285239454</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2837570956335702</v>
+        <v>0.2807654680396047</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3247063214644998</v>
+        <v>0.3232721470278784</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>1308412</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1289012</v>
+        <v>1286687</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1328335</v>
+        <v>1326647</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9243381132953266</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9106326949750573</v>
+        <v>0.908990187119224</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.938412799955801</v>
+        <v>0.9372205306085025</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>103</v>
@@ -1486,19 +1486,19 @@
         <v>104662</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>86758</v>
+        <v>86441</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>126678</v>
+        <v>124772</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1709956703934761</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1417432711818485</v>
+        <v>0.1412255831859251</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2069643078184997</v>
+        <v>0.2038500021598977</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1399</v>
@@ -1507,19 +1507,19 @@
         <v>1413074</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1369217</v>
+        <v>1372125</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1452246</v>
+        <v>1458311</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.696923714760546</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6752936785355004</v>
+        <v>0.6767278529721219</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7162429043664298</v>
+        <v>0.7192345319603953</v>
       </c>
     </row>
     <row r="15">
@@ -1850,19 +1850,19 @@
         <v>109619</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>90945</v>
+        <v>90473</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>127958</v>
+        <v>129541</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1996771970393168</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1656628819342892</v>
+        <v>0.1648026854983007</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2330842925699005</v>
+        <v>0.2359667282559579</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>421</v>
@@ -1871,19 +1871,19 @@
         <v>446925</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>428548</v>
+        <v>427958</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>465618</v>
+        <v>466932</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8022586660001221</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7692710406160193</v>
+        <v>0.7682125255945788</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.835814586007069</v>
+        <v>0.8381729381414814</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>520</v>
@@ -1892,19 +1892,19 @@
         <v>556544</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>520635</v>
+        <v>520680</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>589135</v>
+        <v>589950</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5031754667635893</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4707103144862256</v>
+        <v>0.4707504387748373</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5326416756688193</v>
+        <v>0.5333779241581934</v>
       </c>
     </row>
     <row r="5">
@@ -1921,19 +1921,19 @@
         <v>439360</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>421021</v>
+        <v>419438</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>458034</v>
+        <v>458506</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8003228029606833</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7669157074300996</v>
+        <v>0.7640332717440421</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8343371180657108</v>
+        <v>0.8351973145016991</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>101</v>
@@ -1942,19 +1942,19 @@
         <v>110158</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>91465</v>
+        <v>90151</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>128535</v>
+        <v>129125</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1977413339998779</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1641854139929309</v>
+        <v>0.1618270618585184</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.230728959383981</v>
+        <v>0.2317874744054212</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>512</v>
@@ -1963,19 +1963,19 @@
         <v>549519</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>516928</v>
+        <v>516113</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>585428</v>
+        <v>585383</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4968245332364107</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4673583243311807</v>
+        <v>0.4666220758418064</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5292896855137743</v>
+        <v>0.5292495612251628</v>
       </c>
     </row>
     <row r="6">
@@ -2067,19 +2067,19 @@
         <v>49672</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>35940</v>
+        <v>36860</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>66212</v>
+        <v>66443</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06977585904599724</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05048569101888203</v>
+        <v>0.05177872026533136</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09300915017931381</v>
+        <v>0.09333403257658723</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>132</v>
@@ -2088,19 +2088,19 @@
         <v>152906</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>135382</v>
+        <v>133278</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>172428</v>
+        <v>170288</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.481398228452964</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4262269452063654</v>
+        <v>0.4196025298642101</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.542862218745373</v>
+        <v>0.5361239690419806</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>176</v>
@@ -2109,19 +2109,19 @@
         <v>202578</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>176854</v>
+        <v>176570</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>232266</v>
+        <v>231355</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1967707477493295</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1717843061649015</v>
+        <v>0.1715083352768138</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2256076050836842</v>
+        <v>0.2247229036142117</v>
       </c>
     </row>
     <row r="8">
@@ -2138,19 +2138,19 @@
         <v>662212</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>645672</v>
+        <v>645441</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>675944</v>
+        <v>675024</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9302241409540027</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9069908498206861</v>
+        <v>0.9066659674234129</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9495143089811179</v>
+        <v>0.9482212797346686</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>153</v>
@@ -2159,19 +2159,19 @@
         <v>164722</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>145200</v>
+        <v>147340</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>182246</v>
+        <v>184350</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5186017715470359</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.457137781254627</v>
+        <v>0.4638760309580194</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5737730547936347</v>
+        <v>0.5803974701357898</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>780</v>
@@ -2180,19 +2180,19 @@
         <v>826933</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>797245</v>
+        <v>798156</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>852657</v>
+        <v>852941</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8032292522506704</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7743923949163156</v>
+        <v>0.7752770963857883</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8282156938350983</v>
+        <v>0.8284916647231862</v>
       </c>
     </row>
     <row r="9">
@@ -2284,19 +2284,19 @@
         <v>13574</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6842</v>
+        <v>6791</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25396</v>
+        <v>23835</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1196382796974134</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06030905989847099</v>
+        <v>0.05985312179473693</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2238421169396438</v>
+        <v>0.2100786180639117</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -2305,19 +2305,19 @@
         <v>25810</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18168</v>
+        <v>18375</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>32400</v>
+        <v>32925</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5868498892838094</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4130908407962084</v>
+        <v>0.4178114264450265</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7367050603106365</v>
+        <v>0.7486376902511974</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>30</v>
@@ -2326,19 +2326,19 @@
         <v>39383</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>27533</v>
+        <v>28668</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>53225</v>
+        <v>53986</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2501553848497884</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1748806034898327</v>
+        <v>0.182092756442761</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3380751548048349</v>
+        <v>0.3429049564104568</v>
       </c>
     </row>
     <row r="11">
@@ -2355,19 +2355,19 @@
         <v>99882</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>88060</v>
+        <v>89621</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>106614</v>
+        <v>106665</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8803617203025866</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7761578830603559</v>
+        <v>0.7899213819360883</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9396909401015291</v>
+        <v>0.9401468782052632</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>16</v>
@@ -2376,19 +2376,19 @@
         <v>18170</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>11580</v>
+        <v>11055</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>25812</v>
+        <v>25605</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4131501107161906</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2632949396893634</v>
+        <v>0.2513623097488028</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5869091592037917</v>
+        <v>0.5821885735549738</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>103</v>
@@ -2397,19 +2397,19 @@
         <v>118053</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>104211</v>
+        <v>103450</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>129903</v>
+        <v>128768</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7498446151502116</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6619248451951653</v>
+        <v>0.6570950435895432</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8251193965101676</v>
+        <v>0.817907243557239</v>
       </c>
     </row>
     <row r="12">
@@ -2501,19 +2501,19 @@
         <v>172865</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>146607</v>
+        <v>149729</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>199596</v>
+        <v>204081</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1257820335737823</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1066760029183578</v>
+        <v>0.1089478803590065</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1452325455064035</v>
+        <v>0.1484960633895689</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>574</v>
@@ -2522,19 +2522,19 @@
         <v>625640</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>591528</v>
+        <v>595639</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>652132</v>
+        <v>654559</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6810124027462398</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6438810803029139</v>
+        <v>0.6483557346222826</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.7098494970935557</v>
+        <v>0.7124904327172231</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>726</v>
@@ -2543,19 +2543,19 @@
         <v>798505</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>753570</v>
+        <v>754094</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>847497</v>
+        <v>849323</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3482343377665761</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3286377096866989</v>
+        <v>0.3288663844996353</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3696000783335606</v>
+        <v>0.3703963899733484</v>
       </c>
     </row>
     <row r="14">
@@ -2572,19 +2572,19 @@
         <v>1201454</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1174723</v>
+        <v>1170238</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1227712</v>
+        <v>1224590</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8742179664262176</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8547674544935964</v>
+        <v>0.8515039366104312</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.893323997081642</v>
+        <v>0.8910521196409935</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>270</v>
@@ -2593,19 +2593,19 @@
         <v>293051</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>266559</v>
+        <v>264132</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>327163</v>
+        <v>323052</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3189875972537602</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2901505029064443</v>
+        <v>0.2875095672827768</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.356118919697086</v>
+        <v>0.3516442653777174</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1395</v>
@@ -2614,19 +2614,19 @@
         <v>1494505</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1445513</v>
+        <v>1443687</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1539440</v>
+        <v>1538916</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6517656622334239</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6303999216664393</v>
+        <v>0.6296036100266516</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6713622903133011</v>
+        <v>0.6711336155003647</v>
       </c>
     </row>
     <row r="15">
@@ -2957,19 +2957,19 @@
         <v>78652</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>63591</v>
+        <v>63929</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>96543</v>
+        <v>94939</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1933107431815796</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1562945347982702</v>
+        <v>0.1571260899528026</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2372845472241269</v>
+        <v>0.233340586330434</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>310</v>
@@ -2978,19 +2978,19 @@
         <v>353167</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>332578</v>
+        <v>334739</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>367449</v>
+        <v>370064</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7956201147288398</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7492374998708676</v>
+        <v>0.7541042504219755</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8277949046875522</v>
+        <v>0.8336848777735273</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>393</v>
@@ -2999,19 +2999,19 @@
         <v>431819</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>403615</v>
+        <v>402319</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>461347</v>
+        <v>462585</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5075708806471755</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4744193269913958</v>
+        <v>0.472896204297338</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5422788763755066</v>
+        <v>0.5437337440028419</v>
       </c>
     </row>
     <row r="5">
@@ -3028,19 +3028,19 @@
         <v>328215</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>310324</v>
+        <v>311928</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>343276</v>
+        <v>342938</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8066892568184204</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.762715452775873</v>
+        <v>0.766659413669566</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8437054652017298</v>
+        <v>0.8428739100471974</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>89</v>
@@ -3049,19 +3049,19 @@
         <v>90722</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>76440</v>
+        <v>73825</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>111311</v>
+        <v>109150</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2043798852711602</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1722050953124475</v>
+        <v>0.1663151222264726</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2507625001291321</v>
+        <v>0.2458957495780243</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>422</v>
@@ -3070,19 +3070,19 @@
         <v>418937</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>389409</v>
+        <v>388171</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>447141</v>
+        <v>448437</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4924291193528245</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4577211236244933</v>
+        <v>0.4562662559971579</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5255806730086042</v>
+        <v>0.527103795702662</v>
       </c>
     </row>
     <row r="6">
@@ -3174,19 +3174,19 @@
         <v>70212</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>55253</v>
+        <v>54538</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>88591</v>
+        <v>87904</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08803510514249442</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06927887144410412</v>
+        <v>0.06838253378001462</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1110784701751174</v>
+        <v>0.1102176241810261</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>187</v>
@@ -3195,19 +3195,19 @@
         <v>211470</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>189176</v>
+        <v>191210</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>229698</v>
+        <v>232159</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5357437854116495</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4792616175299343</v>
+        <v>0.4844164659363167</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5819228749079499</v>
+        <v>0.5881566994174454</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>254</v>
@@ -3216,19 +3216,19 @@
         <v>281682</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>252059</v>
+        <v>252786</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>314340</v>
+        <v>315425</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2362569988121465</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2114107141618859</v>
+        <v>0.2120209170918393</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2636480177484446</v>
+        <v>0.2645584724906184</v>
       </c>
     </row>
     <row r="8">
@@ -3245,19 +3245,19 @@
         <v>727337</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>708958</v>
+        <v>709645</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>742296</v>
+        <v>743011</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9119648948575055</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8889215298248826</v>
+        <v>0.8897823758189739</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9307211285558959</v>
+        <v>0.9316174662199854</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>175</v>
@@ -3266,19 +3266,19 @@
         <v>183253</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>165025</v>
+        <v>162564</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>205547</v>
+        <v>203513</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4642562145883505</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.41807712509205</v>
+        <v>0.4118433005825545</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5207383824700657</v>
+        <v>0.5155835340636831</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>860</v>
@@ -3287,19 +3287,19 @@
         <v>910589</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>877931</v>
+        <v>876846</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>940212</v>
+        <v>939485</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7637430011878534</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7363519822515555</v>
+        <v>0.7354415275093819</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7885892858381143</v>
+        <v>0.7879790829081608</v>
       </c>
     </row>
     <row r="9">
@@ -3391,19 +3391,19 @@
         <v>20221</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12074</v>
+        <v>12946</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>30292</v>
+        <v>30726</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1368035396863988</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08168923667287777</v>
+        <v>0.08758748673610645</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2049371365037693</v>
+        <v>0.2078791745677894</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>23</v>
@@ -3412,19 +3412,19 @@
         <v>27206</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18972</v>
+        <v>19818</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>35044</v>
+        <v>35355</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4793562017317492</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3342708291499519</v>
+        <v>0.3491716811700055</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6174502011918115</v>
+        <v>0.6229356282401407</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>42</v>
@@ -3433,19 +3433,19 @@
         <v>47427</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>35029</v>
+        <v>35355</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>59800</v>
+        <v>60537</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2318434009252986</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1712358607956637</v>
+        <v>0.1728326010613411</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2923290774950115</v>
+        <v>0.2959337234550346</v>
       </c>
     </row>
     <row r="11">
@@ -3462,19 +3462,19 @@
         <v>127588</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>117517</v>
+        <v>117083</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>135735</v>
+        <v>134863</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8631964603136012</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7950628634962307</v>
+        <v>0.7921208254322106</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9183107633271222</v>
+        <v>0.9124125132638937</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>28</v>
@@ -3483,19 +3483,19 @@
         <v>29550</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>21712</v>
+        <v>21401</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>37784</v>
+        <v>36938</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5206437982682508</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3825497988081885</v>
+        <v>0.3770643717598595</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.665729170850048</v>
+        <v>0.6508283188299945</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>146</v>
@@ -3504,19 +3504,19 @@
         <v>157137</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>144764</v>
+        <v>144027</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>169535</v>
+        <v>169209</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7681565990747014</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7076709225049884</v>
+        <v>0.7040662765449652</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8287641392043362</v>
+        <v>0.8271673989386581</v>
       </c>
     </row>
     <row r="12">
@@ -3608,19 +3608,19 @@
         <v>169085</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>146281</v>
+        <v>145521</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>197041</v>
+        <v>193700</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1250419487518012</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.108177851969904</v>
+        <v>0.1076158009250909</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1457160397672125</v>
+        <v>0.1432456787566934</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>520</v>
@@ -3629,19 +3629,19 @@
         <v>591843</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>561584</v>
+        <v>566139</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>619279</v>
+        <v>620974</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6610063531197692</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.6272111135451599</v>
+        <v>0.632298482188187</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6916485938815021</v>
+        <v>0.6935414098177927</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>689</v>
@@ -3650,19 +3650,19 @@
         <v>760928</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>718180</v>
+        <v>720869</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>809214</v>
+        <v>811064</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3385527410429299</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3195332693055662</v>
+        <v>0.3207294997794495</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3600361945926704</v>
+        <v>0.3608593002175395</v>
       </c>
     </row>
     <row r="14">
@@ -3679,19 +3679,19 @@
         <v>1183139</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1155183</v>
+        <v>1158524</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1205943</v>
+        <v>1206703</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8749580512481988</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8542839602327867</v>
+        <v>0.8567543212433062</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8918221480300959</v>
+        <v>0.892384199074909</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>292</v>
@@ -3700,19 +3700,19 @@
         <v>303524</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>276088</v>
+        <v>274393</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>333783</v>
+        <v>329228</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3389936468802309</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3083514061184979</v>
+        <v>0.3064585901822072</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3727888864548404</v>
+        <v>0.3677015178118127</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1428</v>
@@ -3721,19 +3721,19 @@
         <v>1486663</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1438377</v>
+        <v>1436527</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1529411</v>
+        <v>1526722</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6614472589570701</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6399638054073299</v>
+        <v>0.6391406997824605</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6804667306944336</v>
+        <v>0.6792705002205505</v>
       </c>
     </row>
     <row r="15">
